--- a/Assignment_02/2.5/Results.xlsx
+++ b/Assignment_02/2.5/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/felixwaldschock/Documents/gits/Chalmers_TME286_IntelligentAgents/Assignment_02/2.5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49E03B20-BD4F-3E4A-A597-719E2BA5605E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77BDEACC-83CC-894A-81D2-6C1045F039D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14700" yWindow="740" windowWidth="14700" windowHeight="17160" xr2:uid="{766BD3C7-E960-9F43-864C-82278F98FB10}"/>
+    <workbookView xWindow="14700" yWindow="740" windowWidth="14700" windowHeight="17080" xr2:uid="{766BD3C7-E960-9F43-864C-82278F98FB10}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -428,7 +428,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection sqref="A1:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -445,6 +445,9 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
+      <c r="B2">
+        <v>0.80149999999999999</v>
+      </c>
       <c r="C2">
         <v>0.84560000000000002</v>
       </c>
@@ -453,6 +456,9 @@
       <c r="A3" t="s">
         <v>3</v>
       </c>
+      <c r="B3">
+        <v>0.83540000000000003</v>
+      </c>
       <c r="C3">
         <v>0.84</v>
       </c>
@@ -461,6 +467,9 @@
       <c r="A4" t="s">
         <v>4</v>
       </c>
+      <c r="B4">
+        <v>0.751</v>
+      </c>
       <c r="C4">
         <v>0.85370000000000001</v>
       </c>
@@ -469,11 +478,15 @@
       <c r="A5" t="s">
         <v>5</v>
       </c>
+      <c r="B5">
+        <v>0.79100000000000004</v>
+      </c>
       <c r="C5">
         <v>0.8468</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>